--- a/src/main/resources/downfiles/专家模板.xlsx
+++ b/src/main/resources/downfiles/专家模板.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/souyouyou/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/souyouyou/IdeaProjects/ship/src/main/resources/downfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>序号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>性别</t>
   </si>
@@ -99,27 +96,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -139,15 +121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -428,58 +407,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D2" s="4"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D3" s="4"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/main/resources/downfiles/专家模板.xlsx
+++ b/src/main/resources/downfiles/专家模板.xlsx
@@ -27,36 +27,184 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>性别</t>
   </si>
   <si>
-    <t>出生年月</t>
-  </si>
-  <si>
     <t>工作单位</t>
   </si>
   <si>
     <t>职称</t>
   </si>
   <si>
-    <t>业务专长</t>
-  </si>
-  <si>
     <t>移动电话</t>
   </si>
   <si>
-    <t>单位电话</t>
+    <t>姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专长领域</t>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <rPh sb="0" eb="1">
+      <t>shen'f'z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>传真</t>
+    <rPh sb="0" eb="1">
+      <t>chaun'zhen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei'zhu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历</t>
+    <rPh sb="0" eb="1">
+      <t>xue'li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'wu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人简介</t>
+    <rPh sb="0" eb="1">
+      <t>ge'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian'jie</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在部门</t>
+    <rPh sb="0" eb="1">
+      <t>suo'zai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'men</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位所属领域</t>
+    <rPh sb="0" eb="1">
+      <t>dan'wei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>suo'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ling'yu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯地址</t>
+    <rPh sb="0" eb="1">
+      <t>tong'xun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>nan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技管理</t>
+    <rPh sb="0" eb="1">
+      <t>ke'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan'li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>232324198904261835</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传真</t>
+    <rPh sb="0" eb="1">
+      <t>chuan'zhen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属领域</t>
+    <rPh sb="0" eb="1">
+      <t>suo'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ling'yu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
+    <rPh sb="0" eb="1">
+      <t>xing'ming</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生年月（2005/4/28）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮编（数字）</t>
+    <rPh sb="0" eb="1">
+      <t>you'bian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu'zi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家聘用次数(数字)</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pin'yon</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ci'shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shu'zi</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -126,10 +274,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -407,41 +553,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" customWidth="1"/>
+    <col min="16" max="16" width="19.6640625" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" customWidth="1"/>
+    <col min="18" max="18" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -450,15 +605,93 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C3" s="3"/>
+    <row r="2" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2">
+        <v>32624</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>18643605941</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1">
+      <formula1>"专长领域,科技管理,军民融合,成果转化,战略规划,技术领域,知识产权实务,政策法规"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>